--- a/data/output/predictions/y_test_consumo_privado.xlsx
+++ b/data/output/predictions/y_test_consumo_privado.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,50 +399,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="B2">
-        <v>22173.79119999996</v>
+        <v>25702.96947411478</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B3">
-        <v>22761.82099999995</v>
+        <v>19718.33514971565</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B4">
-        <v>22338.86154999996</v>
+        <v>21422.62108999083</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B5">
-        <v>22953.16399999995</v>
+        <v>24317.84768695892</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B6">
-        <v>21010.89227499996</v>
+        <v>27871.16216302907</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B7">
+        <v>21531.94451081581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>45473</v>
       </c>
-      <c r="B7">
-        <v>21365.76377499995</v>
+      <c r="B8">
+        <v>23172.10637855494</v>
       </c>
     </row>
   </sheetData>
